--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,22 +55,37 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>good</t>
@@ -79,30 +94,18 @@
     <t>support</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
@@ -112,25 +115,25 @@
     <t>relief</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.726027397260274</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9416666666666667</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -599,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -607,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4708994708994709</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -657,13 +660,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3604651162790697</v>
+        <v>0.3682170542635659</v>
       </c>
       <c r="C5">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D5">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,19 +678,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -699,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -707,13 +710,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.261744966442953</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -725,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -757,13 +760,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -783,13 +786,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8511749347258486</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -809,13 +812,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -835,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -861,13 +864,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -887,13 +890,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -913,13 +916,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.795774647887324</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -939,13 +942,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -965,13 +968,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1017,13 +1020,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6511627906976745</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1035,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1043,13 +1046,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6382978723404256</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1069,13 +1072,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6349206349206349</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1095,13 +1098,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6264705882352941</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1121,13 +1124,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.6264705882352941</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1147,13 +1150,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5957446808510638</v>
+        <v>0.58</v>
       </c>
       <c r="L22">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1173,13 +1176,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5941422594142259</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L23">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="M23">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1199,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5627118644067797</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L24">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="M24">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1225,13 +1228,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5384615384615384</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1251,13 +1254,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5142857142857142</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1277,13 +1280,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4157303370786517</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1303,13 +1306,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3333333333333333</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L28">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,7 +1324,33 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>52</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
